--- a/data/stock_assessments/processed/pbrs.xlsx
+++ b/data/stock_assessments/processed/pbrs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/stock_assessments/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79AE68B1-C53F-B640-A3B0-C09CDAC34F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE812004-87F8-DF46-B7A9-9A42908EC088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5300" yWindow="3300" windowWidth="28040" windowHeight="17440" xr2:uid="{24BFE941-0868-004F-AF1D-3F76AF9DEB10}"/>
+    <workbookView xWindow="18940" yWindow="3780" windowWidth="28040" windowHeight="17440" xr2:uid="{24BFE941-0868-004F-AF1D-3F76AF9DEB10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>species</t>
   </si>
@@ -65,9 +54,6 @@
     <t>California sea lion</t>
   </si>
   <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>Northern elephant seal</t>
   </si>
   <si>
@@ -84,6 +70,12 @@
   </si>
   <si>
     <t>Monterey Bay</t>
+  </si>
+  <si>
+    <t>US West Coast</t>
+  </si>
+  <si>
+    <t>Central California</t>
   </si>
 </sst>
 </file>
@@ -439,13 +431,13 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -497,7 +489,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>14011</v>
@@ -514,10 +506,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>5122</v>
@@ -528,10 +520,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
       <c r="C5">
         <v>65</v>
@@ -548,10 +540,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>354</v>
@@ -563,15 +555,15 @@
         <v>24685</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>35</v>

--- a/data/stock_assessments/processed/pbrs.xlsx
+++ b/data/stock_assessments/processed/pbrs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/ca_set_gillnet_bycatch/data/stock_assessments/processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE812004-87F8-DF46-B7A9-9A42908EC088}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C169C4-827C-CD4B-A387-2D79CCBBC8FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18940" yWindow="3780" windowWidth="28040" windowHeight="17440" xr2:uid="{24BFE941-0868-004F-AF1D-3F76AF9DEB10}"/>
+    <workbookView xWindow="20520" yWindow="5620" windowWidth="28040" windowHeight="17440" xr2:uid="{24BFE941-0868-004F-AF1D-3F76AF9DEB10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>species</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Morro Bay</t>
   </si>
   <si>
-    <t>NorCal/SoOr</t>
-  </si>
-  <si>
     <t>2007-2016</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>Central California</t>
+  </si>
+  <si>
+    <t>San Francisco-Russian River</t>
+  </si>
+  <si>
+    <t>Northern California</t>
   </si>
 </sst>
 </file>
@@ -428,16 +431,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51EFA0F-F825-8544-B7CE-7B62BA31B5D0}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
@@ -489,7 +492,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3">
         <v>14011</v>
@@ -509,7 +512,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>5122</v>
@@ -543,19 +546,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>354</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>17713</v>
+        <v>2421</v>
       </c>
       <c r="E6">
-        <v>24685</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
+        <v>3760</v>
+      </c>
+      <c r="F6">
+        <v>2013</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -563,19 +566,39 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="D7">
-        <v>2421</v>
+        <v>4811</v>
       </c>
       <c r="E7">
-        <v>3760</v>
+        <v>7777</v>
       </c>
       <c r="F7">
-        <v>2013</v>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>354</v>
+      </c>
+      <c r="D8">
+        <v>17713</v>
+      </c>
+      <c r="E8">
+        <v>24685</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
